--- a/data/inspection_data.xlsx
+++ b/data/inspection_data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmc\Nextcloud\AVID_Restricted\Student Projects\NSF REU 2020-2021\NMSU Summer 2020\inspections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmc\Nextcloud\AVID_Restricted\Student Projects\NSF REU 2020-2021\NMSU Summer 2021\inspections\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67136777-032A-4825-B802-43EDC1690EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF36CDCD-EB62-4896-BB88-D523E7BABA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F033C6C8-CE31-4B33-998A-F6B34438E061}"/>
+    <workbookView xWindow="-19320" yWindow="720" windowWidth="19440" windowHeight="15150" firstSheet="1" activeTab="2" xr2:uid="{F033C6C8-CE31-4B33-998A-F6B34438E061}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="G-324A rev 9-3-08" sheetId="1" r:id="rId1"/>
+    <sheet name="G-324A rev 10-17-19" sheetId="2" r:id="rId2"/>
+    <sheet name="G-324A rev 10-17-19 incidents" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,46 +36,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>Facility</t>
   </si>
   <si>
-    <t>Inspection From</t>
+    <t>F Administrator</t>
   </si>
   <si>
-    <t>Inspection To</t>
+    <t>F Name</t>
   </si>
   <si>
-    <t>Operator</t>
+    <t>Current Inspection Date From</t>
   </si>
   <si>
-    <t>Rating</t>
+    <t>Recommended Rating</t>
   </si>
   <si>
-    <t>Filename</t>
+    <t>Accreditations</t>
   </si>
   <si>
-    <t>adamsCoCorrCntr_SIS_12-03-2020.pdf</t>
+    <t>ACA</t>
   </si>
   <si>
-    <t>Adams County Correctional Center</t>
+    <t>NCCHC</t>
   </si>
   <si>
-    <t>CoreCivic</t>
+    <t>JCH</t>
   </si>
   <si>
-    <t>Meets Standards</t>
+    <t>PREA</t>
+  </si>
+  <si>
+    <t>Court Order or Class Action</t>
+  </si>
+  <si>
+    <t>Significant Litigation</t>
+  </si>
+  <si>
+    <t>Detainee physical assault on staff – with serious injury</t>
+  </si>
+  <si>
+    <t>Detainee physical assault on staff – with no serious injury</t>
+  </si>
+  <si>
+    <t>Detainee on detainee physical assault/fight – with serious injury</t>
+  </si>
+  <si>
+    <t>Detainee on detainee physical assault/fight – with no serious injury</t>
+  </si>
+  <si>
+    <t>Disciplinary infractions</t>
+  </si>
+  <si>
+    <t>Disciplinary infractions - Guilty</t>
+  </si>
+  <si>
+    <t>Disciplinary appeals</t>
+  </si>
+  <si>
+    <t>Disciplinary appeals found in favor of detainee</t>
+  </si>
+  <si>
+    <t>Sanctions over 60 days</t>
+  </si>
+  <si>
+    <t>Detainees placed in administrative segregation</t>
+  </si>
+  <si>
+    <t>Detainees placed in disciplinary segregation</t>
+  </si>
+  <si>
+    <t>Detainees placed in segregation for medical reasons</t>
+  </si>
+  <si>
+    <t>Detainees placed in segregation for mental health reasons</t>
+  </si>
+  <si>
+    <t>Immediate use of force incidents</t>
+  </si>
+  <si>
+    <t>Calculated use of force incidents</t>
+  </si>
+  <si>
+    <t>Uses of force with chemical agents</t>
+  </si>
+  <si>
+    <t>Incidents where non-lethal weapons were used</t>
+  </si>
+  <si>
+    <t>Number of times 4/5 point restraints were used</t>
+  </si>
+  <si>
+    <t>Use of force with serious injury</t>
+  </si>
+  <si>
+    <t>Strip Searches</t>
+  </si>
+  <si>
+    <t>Sexual Abuse allegations - detainee on detainee</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations - inmate on detainee</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations - detainee on inmate</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations - detainee on detainee</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations inmate on detainee</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations detainee on inmate</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations staff/contractor/volunteer on detainee</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations detainee on staff/contractor/volunteer</t>
+  </si>
+  <si>
+    <t>Detainees in medical observation</t>
+  </si>
+  <si>
+    <t>Detainees in mental health observation</t>
+  </si>
+  <si>
+    <t>Infectious disease reported</t>
+  </si>
+  <si>
+    <t>Infections disease confirmed</t>
+  </si>
+  <si>
+    <t>Outside medical referrals</t>
+  </si>
+  <si>
+    <t>Detainees transported to off-site hospitals for emergency care</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admissions to off-site hospitals for medical reasons</t>
+  </si>
+  <si>
+    <t>Admissions to off-site hospitals for mental health reasons</t>
+  </si>
+  <si>
+    <t>Sick call requests</t>
+  </si>
+  <si>
+    <t>Sick call encounters</t>
+  </si>
+  <si>
+    <t>Suicide watches/constant watch/mental health observation</t>
+  </si>
+  <si>
+    <t>Suicide attempts (or self harm)</t>
+  </si>
+  <si>
+    <t>Hunger strikes</t>
+  </si>
+  <si>
+    <t>Sexual abuse allegations - detainee on staff/contractor/volunteer</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23039C29-1D67-4420-8146-CD44FBD77876}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="C2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,45 +621,9 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43862</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -477,14 +632,6699 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C516D5-86F8-4332-9DB7-39B8E5B95B71}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72542E95-6BEA-49BF-A64B-4507A709CE16}">
+  <dimension ref="A1:AT37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AJ5" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>515</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>515</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>664</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>664</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>600</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>300</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>300</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>550</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>550</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>490</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>490</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>398</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>398</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>366</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>366</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>10</v>
+      </c>
+      <c r="AI14">
+        <v>6</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>18</v>
+      </c>
+      <c r="AM14">
+        <v>3</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14">
+        <v>536</v>
+      </c>
+      <c r="AR14">
+        <v>9</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>7</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>45</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ15">
+        <v>428</v>
+      </c>
+      <c r="AR15">
+        <v>7</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>11</v>
+      </c>
+      <c r="AI16">
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>34</v>
+      </c>
+      <c r="AM16">
+        <v>7</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16">
+        <v>437</v>
+      </c>
+      <c r="AR16">
+        <v>4</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>8</v>
+      </c>
+      <c r="AI17">
+        <v>6</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>51</v>
+      </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17">
+        <v>434</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>9</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>40</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ18">
+        <v>453</v>
+      </c>
+      <c r="AR18">
+        <v>2</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>9</v>
+      </c>
+      <c r="AI19">
+        <v>9</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>17</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ19">
+        <v>476</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>21</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>13</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>43</v>
+      </c>
+      <c r="AM20">
+        <v>4</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ20">
+        <v>452</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>11</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>48</v>
+      </c>
+      <c r="AM21">
+        <v>4</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ21">
+        <v>482</v>
+      </c>
+      <c r="AR21">
+        <v>5</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>17</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>10</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>59</v>
+      </c>
+      <c r="AM22">
+        <v>4</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ22">
+        <v>465</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>7</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>56</v>
+      </c>
+      <c r="AM23">
+        <v>5</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ23">
+        <v>443</v>
+      </c>
+      <c r="AR23">
+        <v>4</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>11</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>36</v>
+      </c>
+      <c r="AM24">
+        <v>8</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ24">
+        <v>515</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+      <c r="O25">
+        <v>17</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>7</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>52</v>
+      </c>
+      <c r="AM25">
+        <v>6</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ25">
+        <v>410</v>
+      </c>
+      <c r="AR25">
+        <v>6</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>12</v>
+      </c>
+      <c r="AM26">
+        <v>6</v>
+      </c>
+      <c r="AN26">
+        <v>6</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>299</v>
+      </c>
+      <c r="AQ26">
+        <v>299</v>
+      </c>
+      <c r="AR26">
+        <v>2</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>52</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>17</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>269</v>
+      </c>
+      <c r="AQ27">
+        <v>269</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>17</v>
+      </c>
+      <c r="AM28">
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>247</v>
+      </c>
+      <c r="AQ28">
+        <v>247</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>37</v>
+      </c>
+      <c r="I29">
+        <v>31</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>264</v>
+      </c>
+      <c r="AQ29">
+        <v>264</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>183</v>
+      </c>
+      <c r="AQ30">
+        <v>183</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>130</v>
+      </c>
+      <c r="AQ31">
+        <v>130</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>7</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>65</v>
+      </c>
+      <c r="AQ32">
+        <v>65</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>6</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>69</v>
+      </c>
+      <c r="AQ33">
+        <v>69</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>7</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>67</v>
+      </c>
+      <c r="AQ34">
+        <v>67</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>3</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>64</v>
+      </c>
+      <c r="AQ35">
+        <v>64</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>59</v>
+      </c>
+      <c r="AQ36">
+        <v>59</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADF42F-04A5-4A01-A836-D67512F62B2B}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>299</v>
+      </c>
+      <c r="B39">
+        <v>269</v>
+      </c>
+      <c r="C39">
+        <v>247</v>
+      </c>
+      <c r="D39">
+        <v>264</v>
+      </c>
+      <c r="E39">
+        <v>183</v>
+      </c>
+      <c r="F39">
+        <v>130</v>
+      </c>
+      <c r="G39">
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <v>69</v>
+      </c>
+      <c r="I39">
+        <v>67</v>
+      </c>
+      <c r="J39">
+        <v>64</v>
+      </c>
+      <c r="K39">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>299</v>
+      </c>
+      <c r="B40">
+        <v>269</v>
+      </c>
+      <c r="C40">
+        <v>247</v>
+      </c>
+      <c r="D40">
+        <v>264</v>
+      </c>
+      <c r="E40">
+        <v>183</v>
+      </c>
+      <c r="F40">
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <v>65</v>
+      </c>
+      <c r="H40">
+        <v>69</v>
+      </c>
+      <c r="I40">
+        <v>67</v>
+      </c>
+      <c r="J40">
+        <v>64</v>
+      </c>
+      <c r="K40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
